--- a/Referensi Lain/Soal UVA.xlsx
+++ b/Referensi Lain/Soal UVA.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19440" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -255,8 +255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,7 +413,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -448,7 +447,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,14 +622,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -640,7 +638,7 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -660,7 +658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -669,7 +667,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -686,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="C4">
         <v>1124</v>
       </c>
@@ -697,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="C5">
         <v>10071</v>
       </c>
@@ -708,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="C6">
         <v>100</v>
       </c>
@@ -719,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="C7">
         <v>10550</v>
       </c>
@@ -730,7 +728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="C8" s="2">
         <v>102</v>
       </c>
@@ -741,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>3</v>
       </c>
@@ -758,7 +756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="C10">
         <v>12403</v>
       </c>
@@ -769,7 +767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="C11">
         <v>11172</v>
       </c>
@@ -780,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="C12">
         <v>11498</v>
       </c>
@@ -791,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="C13">
         <v>11727</v>
       </c>
@@ -802,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="C14">
         <v>12372</v>
       </c>
@@ -813,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>4</v>
       </c>
@@ -830,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="C16" s="2">
         <v>256</v>
       </c>
@@ -841,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>5</v>
       </c>
@@ -858,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="C18">
         <v>12289</v>
       </c>
@@ -869,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="C19">
         <v>11044</v>
       </c>
@@ -880,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>6</v>
       </c>
@@ -897,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="C21">
         <v>10469</v>
       </c>
@@ -908,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="C22">
         <v>10773</v>
       </c>
@@ -919,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="C23">
         <v>11723</v>
       </c>
@@ -930,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="C24">
         <v>11805</v>
       </c>
@@ -941,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="C25">
         <v>11875</v>
       </c>
@@ -952,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="C26">
         <v>12419</v>
       </c>
@@ -963,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="C27">
         <v>12502</v>
       </c>
@@ -974,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>7</v>
       </c>
@@ -991,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="C29">
         <v>10114</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="C30">
         <v>11559</v>
       </c>
@@ -1013,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="C31">
         <v>11799</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="C32" s="2">
         <v>573</v>
       </c>
@@ -1035,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="C33" s="2">
         <v>10141</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="C34" s="2">
         <v>11507</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="C36" s="1">
         <v>11057</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="C37" s="1">
         <v>12192</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="C38" s="1">
         <v>679</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="C39" s="1">
         <v>957</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="C41" s="1">
         <v>11364</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="C42">
         <v>120</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="C43">
         <v>10037</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="C44">
         <v>10026</v>
       </c>
@@ -1179,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="C45">
         <v>10152</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="C47">
         <v>382</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="C48">
         <v>834</v>
       </c>
@@ -1229,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="C49">
         <v>1225</v>
       </c>
@@ -1240,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="C50">
         <v>10346</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>11</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="C52">
         <v>10035</v>
       </c>
@@ -1279,7 +1277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="C53">
         <v>10370</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="C54">
         <v>10783</v>
       </c>
@@ -1301,7 +1299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="C55">
         <v>10879</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>12</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="C57">
         <v>10878</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="C58">
         <v>11278</v>
       </c>
@@ -1351,7 +1349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="C59">
         <v>245</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="C60">
         <v>306</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="C61">
         <v>444</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="C62">
         <v>458</v>
       </c>
@@ -1404,24 +1402,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
